--- a/natmiOut/OldD2/LR-pairs_lrc2p/Colq-Musk.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Colq-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +97,7 @@
     <t>Musk</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.150588776072455</v>
+        <v>0.268152</v>
       </c>
       <c r="H2">
-        <v>0.150588776072455</v>
+        <v>0.536304</v>
       </c>
       <c r="I2">
-        <v>0.3224399515701191</v>
+        <v>0.3837671681991558</v>
       </c>
       <c r="J2">
-        <v>0.3224399515701191</v>
+        <v>0.357974638256744</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.88317284965847</v>
+        <v>4.06343</v>
       </c>
       <c r="N2">
-        <v>3.88317284965847</v>
+        <v>12.19029</v>
       </c>
       <c r="O2">
-        <v>0.243934673404221</v>
+        <v>0.2221677315717048</v>
       </c>
       <c r="P2">
-        <v>0.243934673404221</v>
+        <v>0.2970569689564089</v>
       </c>
       <c r="Q2">
-        <v>0.5847622467078563</v>
+        <v>1.08961688136</v>
       </c>
       <c r="R2">
-        <v>0.5847622467078563</v>
+        <v>6.537701288160001</v>
       </c>
       <c r="S2">
-        <v>0.07865428427872985</v>
+        <v>0.08526068121050334</v>
       </c>
       <c r="T2">
-        <v>0.07865428427872985</v>
+        <v>0.1063388610038153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,185 +590,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.150588776072455</v>
+        <v>0.268152</v>
       </c>
       <c r="H3">
-        <v>0.150588776072455</v>
+        <v>0.536304</v>
       </c>
       <c r="I3">
-        <v>0.3224399515701191</v>
+        <v>0.3837671681991558</v>
       </c>
       <c r="J3">
-        <v>0.3224399515701191</v>
+        <v>0.357974638256744</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>12.0357319762402</v>
+        <v>0.115697</v>
       </c>
       <c r="N3">
-        <v>12.0357319762402</v>
+        <v>0.347091</v>
       </c>
       <c r="O3">
-        <v>0.756065326595779</v>
+        <v>0.006325724828445804</v>
       </c>
       <c r="P3">
-        <v>0.756065326595779</v>
+        <v>0.008458026873195707</v>
       </c>
       <c r="Q3">
-        <v>1.812446147438122</v>
+        <v>0.031024381944</v>
       </c>
       <c r="R3">
-        <v>1.812446147438122</v>
+        <v>0.186146291664</v>
       </c>
       <c r="S3">
-        <v>0.2437856672913893</v>
+        <v>0.002427605504219736</v>
       </c>
       <c r="T3">
-        <v>0.2437856672913893</v>
+        <v>0.003027759110298052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.316440124469069</v>
+        <v>0.268152</v>
       </c>
       <c r="H4">
-        <v>0.316440124469069</v>
+        <v>0.536304</v>
       </c>
       <c r="I4">
-        <v>0.6775600484298808</v>
+        <v>0.3837671681991558</v>
       </c>
       <c r="J4">
-        <v>0.6775600484298808</v>
+        <v>0.357974638256744</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.88317284965847</v>
+        <v>0.2779093333333333</v>
       </c>
       <c r="N4">
-        <v>3.88317284965847</v>
+        <v>0.833728</v>
       </c>
       <c r="O4">
-        <v>0.243934673404221</v>
+        <v>0.01519467203059274</v>
       </c>
       <c r="P4">
-        <v>0.243934673404221</v>
+        <v>0.02031655626027673</v>
       </c>
       <c r="Q4">
-        <v>1.228791699880835</v>
+        <v>0.07452194355200001</v>
       </c>
       <c r="R4">
-        <v>1.228791699880835</v>
+        <v>0.447131661312</v>
       </c>
       <c r="S4">
-        <v>0.1652803891254911</v>
+        <v>0.00583121625689549</v>
       </c>
       <c r="T4">
-        <v>0.1652803891254911</v>
+        <v>0.007272811877895351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.268152</v>
+      </c>
+      <c r="H5">
+        <v>0.536304</v>
+      </c>
+      <c r="I5">
+        <v>0.3837671681991558</v>
+      </c>
+      <c r="J5">
+        <v>0.357974638256744</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>13.8328835</v>
+      </c>
+      <c r="N5">
+        <v>27.665767</v>
+      </c>
+      <c r="O5">
+        <v>0.7563118715692566</v>
+      </c>
+      <c r="P5">
+        <v>0.6741684479101187</v>
+      </c>
+      <c r="Q5">
+        <v>3.709315376292</v>
+      </c>
+      <c r="R5">
+        <v>14.837261505168</v>
+      </c>
+      <c r="S5">
+        <v>0.2902476652275372</v>
+      </c>
+      <c r="T5">
+        <v>0.2413352062647353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.007245666666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.021737</v>
+      </c>
+      <c r="I6">
+        <v>0.01036967458151229</v>
+      </c>
+      <c r="J6">
+        <v>0.01450911183169777</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.06343</v>
+      </c>
+      <c r="N6">
+        <v>12.19029</v>
+      </c>
+      <c r="O6">
+        <v>0.2221677315717048</v>
+      </c>
+      <c r="P6">
+        <v>0.2970569689564089</v>
+      </c>
+      <c r="Q6">
+        <v>0.02944225930333334</v>
+      </c>
+      <c r="R6">
+        <v>0.26498033373</v>
+      </c>
+      <c r="S6">
+        <v>0.002303807078911353</v>
+      </c>
+      <c r="T6">
+        <v>0.00431003278297371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.007245666666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.021737</v>
+      </c>
+      <c r="I7">
+        <v>0.01036967458151229</v>
+      </c>
+      <c r="J7">
+        <v>0.01450911183169777</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.115697</v>
+      </c>
+      <c r="N7">
+        <v>0.347091</v>
+      </c>
+      <c r="O7">
+        <v>0.006325724828445804</v>
+      </c>
+      <c r="P7">
+        <v>0.008458026873195707</v>
+      </c>
+      <c r="Q7">
+        <v>0.0008383018963333332</v>
+      </c>
+      <c r="R7">
+        <v>0.007544717067</v>
+      </c>
+      <c r="S7">
+        <v>6.559570796317563E-05</v>
+      </c>
+      <c r="T7">
+        <v>0.0001227184577787016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.007245666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.021737</v>
+      </c>
+      <c r="I8">
+        <v>0.01036967458151229</v>
+      </c>
+      <c r="J8">
+        <v>0.01450911183169777</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.2779093333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.833728</v>
+      </c>
+      <c r="O8">
+        <v>0.01519467203059274</v>
+      </c>
+      <c r="P8">
+        <v>0.02031655626027673</v>
+      </c>
+      <c r="Q8">
+        <v>0.002013638392888889</v>
+      </c>
+      <c r="R8">
+        <v>0.018122745536</v>
+      </c>
+      <c r="S8">
+        <v>0.0001575638043300532</v>
+      </c>
+      <c r="T8">
+        <v>0.0002947751868153346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.007245666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.021737</v>
+      </c>
+      <c r="I9">
+        <v>0.01036967458151229</v>
+      </c>
+      <c r="J9">
+        <v>0.01450911183169777</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.8328835</v>
+      </c>
+      <c r="N9">
+        <v>27.665767</v>
+      </c>
+      <c r="O9">
+        <v>0.7563118715692566</v>
+      </c>
+      <c r="P9">
+        <v>0.6741684479101187</v>
+      </c>
+      <c r="Q9">
+        <v>0.1002284628798333</v>
+      </c>
+      <c r="R9">
+        <v>0.601370777279</v>
+      </c>
+      <c r="S9">
+        <v>0.007842707990307706</v>
+      </c>
+      <c r="T9">
+        <v>0.009781585404130027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.062144</v>
+      </c>
+      <c r="H10">
+        <v>0.186432</v>
+      </c>
+      <c r="I10">
+        <v>0.08893771778904627</v>
+      </c>
+      <c r="J10">
+        <v>0.1244404810694705</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.06343</v>
+      </c>
+      <c r="N10">
+        <v>12.19029</v>
+      </c>
+      <c r="O10">
+        <v>0.2221677315717048</v>
+      </c>
+      <c r="P10">
+        <v>0.2970569689564089</v>
+      </c>
+      <c r="Q10">
+        <v>0.25251779392</v>
+      </c>
+      <c r="R10">
+        <v>2.27266014528</v>
+      </c>
+      <c r="S10">
+        <v>0.01975909101235687</v>
+      </c>
+      <c r="T10">
+        <v>0.03696591212197427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.062144</v>
+      </c>
+      <c r="H11">
+        <v>0.186432</v>
+      </c>
+      <c r="I11">
+        <v>0.08893771778904627</v>
+      </c>
+      <c r="J11">
+        <v>0.1244404810694705</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.115697</v>
+      </c>
+      <c r="N11">
+        <v>0.347091</v>
+      </c>
+      <c r="O11">
+        <v>0.006325724828445804</v>
+      </c>
+      <c r="P11">
+        <v>0.008458026873195707</v>
+      </c>
+      <c r="Q11">
+        <v>0.007189874367999999</v>
+      </c>
+      <c r="R11">
+        <v>0.064708869312</v>
+      </c>
+      <c r="S11">
+        <v>0.000562595529603476</v>
+      </c>
+      <c r="T11">
+        <v>0.001052520932998983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.062144</v>
+      </c>
+      <c r="H12">
+        <v>0.186432</v>
+      </c>
+      <c r="I12">
+        <v>0.08893771778904627</v>
+      </c>
+      <c r="J12">
+        <v>0.1244404810694705</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2779093333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.833728</v>
+      </c>
+      <c r="O12">
+        <v>0.01519467203059274</v>
+      </c>
+      <c r="P12">
+        <v>0.02031655626027673</v>
+      </c>
+      <c r="Q12">
+        <v>0.01727039761066667</v>
+      </c>
+      <c r="R12">
+        <v>0.155433578496</v>
+      </c>
+      <c r="S12">
+        <v>0.001351379452953971</v>
+      </c>
+      <c r="T12">
+        <v>0.002528202034703799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.062144</v>
+      </c>
+      <c r="H13">
+        <v>0.186432</v>
+      </c>
+      <c r="I13">
+        <v>0.08893771778904627</v>
+      </c>
+      <c r="J13">
+        <v>0.1244404810694705</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.8328835</v>
+      </c>
+      <c r="N13">
+        <v>27.665767</v>
+      </c>
+      <c r="O13">
+        <v>0.7563118715692566</v>
+      </c>
+      <c r="P13">
+        <v>0.6741684479101187</v>
+      </c>
+      <c r="Q13">
+        <v>0.8596307122239999</v>
+      </c>
+      <c r="R13">
+        <v>5.157784273343999</v>
+      </c>
+      <c r="S13">
+        <v>0.06726465179413195</v>
+      </c>
+      <c r="T13">
+        <v>0.08389384597979341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.316440124469069</v>
-      </c>
-      <c r="H5">
-        <v>0.316440124469069</v>
-      </c>
-      <c r="I5">
-        <v>0.6775600484298808</v>
-      </c>
-      <c r="J5">
-        <v>0.6775600484298808</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>12.0357319762402</v>
-      </c>
-      <c r="N5">
-        <v>12.0357319762402</v>
-      </c>
-      <c r="O5">
-        <v>0.756065326595779</v>
-      </c>
-      <c r="P5">
-        <v>0.756065326595779</v>
-      </c>
-      <c r="Q5">
-        <v>3.808588524637803</v>
-      </c>
-      <c r="R5">
-        <v>3.808588524637803</v>
-      </c>
-      <c r="S5">
-        <v>0.5122796593043897</v>
-      </c>
-      <c r="T5">
-        <v>0.5122796593043897</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.0313</v>
+      </c>
+      <c r="H14">
+        <v>0.0939</v>
+      </c>
+      <c r="I14">
+        <v>0.04479516231329089</v>
+      </c>
+      <c r="J14">
+        <v>0.06267679997223265</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.06343</v>
+      </c>
+      <c r="N14">
+        <v>12.19029</v>
+      </c>
+      <c r="O14">
+        <v>0.2221677315717048</v>
+      </c>
+      <c r="P14">
+        <v>0.2970569689564089</v>
+      </c>
+      <c r="Q14">
+        <v>0.127185359</v>
+      </c>
+      <c r="R14">
+        <v>1.144668231</v>
+      </c>
+      <c r="S14">
+        <v>0.009952039596530158</v>
+      </c>
+      <c r="T14">
+        <v>0.01861858022363856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.0313</v>
+      </c>
+      <c r="H15">
+        <v>0.0939</v>
+      </c>
+      <c r="I15">
+        <v>0.04479516231329089</v>
+      </c>
+      <c r="J15">
+        <v>0.06267679997223265</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.115697</v>
+      </c>
+      <c r="N15">
+        <v>0.347091</v>
+      </c>
+      <c r="O15">
+        <v>0.006325724828445804</v>
+      </c>
+      <c r="P15">
+        <v>0.008458026873195707</v>
+      </c>
+      <c r="Q15">
+        <v>0.0036213161</v>
+      </c>
+      <c r="R15">
+        <v>0.0325918449</v>
+      </c>
+      <c r="S15">
+        <v>0.0002833618704394439</v>
+      </c>
+      <c r="T15">
+        <v>0.0005301220584910557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.0313</v>
+      </c>
+      <c r="H16">
+        <v>0.0939</v>
+      </c>
+      <c r="I16">
+        <v>0.04479516231329089</v>
+      </c>
+      <c r="J16">
+        <v>0.06267679997223265</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.2779093333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.833728</v>
+      </c>
+      <c r="O16">
+        <v>0.01519467203059274</v>
+      </c>
+      <c r="P16">
+        <v>0.02031655626027673</v>
+      </c>
+      <c r="Q16">
+        <v>0.008698562133333334</v>
+      </c>
+      <c r="R16">
+        <v>0.07828705919999999</v>
+      </c>
+      <c r="S16">
+        <v>0.0006806477999076228</v>
+      </c>
+      <c r="T16">
+        <v>0.001273376732849976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.0313</v>
+      </c>
+      <c r="H17">
+        <v>0.0939</v>
+      </c>
+      <c r="I17">
+        <v>0.04479516231329089</v>
+      </c>
+      <c r="J17">
+        <v>0.06267679997223265</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>13.8328835</v>
+      </c>
+      <c r="N17">
+        <v>27.665767</v>
+      </c>
+      <c r="O17">
+        <v>0.7563118715692566</v>
+      </c>
+      <c r="P17">
+        <v>0.6741684479101187</v>
+      </c>
+      <c r="Q17">
+        <v>0.43296925355</v>
+      </c>
+      <c r="R17">
+        <v>2.5978155213</v>
+      </c>
+      <c r="S17">
+        <v>0.03387911304641366</v>
+      </c>
+      <c r="T17">
+        <v>0.04225472095725305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3298945</v>
+      </c>
+      <c r="H18">
+        <v>0.659789</v>
+      </c>
+      <c r="I18">
+        <v>0.4721302771169948</v>
+      </c>
+      <c r="J18">
+        <v>0.4403989688698552</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.06343</v>
+      </c>
+      <c r="N18">
+        <v>12.19029</v>
+      </c>
+      <c r="O18">
+        <v>0.2221677315717048</v>
+      </c>
+      <c r="P18">
+        <v>0.2970569689564089</v>
+      </c>
+      <c r="Q18">
+        <v>1.340503208135</v>
+      </c>
+      <c r="R18">
+        <v>8.043019248809999</v>
+      </c>
+      <c r="S18">
+        <v>0.1048921126734031</v>
+      </c>
+      <c r="T18">
+        <v>0.1308235828240071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3298945</v>
+      </c>
+      <c r="H19">
+        <v>0.659789</v>
+      </c>
+      <c r="I19">
+        <v>0.4721302771169948</v>
+      </c>
+      <c r="J19">
+        <v>0.4403989688698552</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.115697</v>
+      </c>
+      <c r="N19">
+        <v>0.347091</v>
+      </c>
+      <c r="O19">
+        <v>0.006325724828445804</v>
+      </c>
+      <c r="P19">
+        <v>0.008458026873195707</v>
+      </c>
+      <c r="Q19">
+        <v>0.0381678039665</v>
+      </c>
+      <c r="R19">
+        <v>0.229006823799</v>
+      </c>
+      <c r="S19">
+        <v>0.002986566216219972</v>
+      </c>
+      <c r="T19">
+        <v>0.003724906313628915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3298945</v>
+      </c>
+      <c r="H20">
+        <v>0.659789</v>
+      </c>
+      <c r="I20">
+        <v>0.4721302771169948</v>
+      </c>
+      <c r="J20">
+        <v>0.4403989688698552</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.2779093333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.833728</v>
+      </c>
+      <c r="O20">
+        <v>0.01519467203059274</v>
+      </c>
+      <c r="P20">
+        <v>0.02031655626027673</v>
+      </c>
+      <c r="Q20">
+        <v>0.09168076056533334</v>
+      </c>
+      <c r="R20">
+        <v>0.550084563392</v>
+      </c>
+      <c r="S20">
+        <v>0.007173864716505598</v>
+      </c>
+      <c r="T20">
+        <v>0.008947390428012276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3298945</v>
+      </c>
+      <c r="H21">
+        <v>0.659789</v>
+      </c>
+      <c r="I21">
+        <v>0.4721302771169948</v>
+      </c>
+      <c r="J21">
+        <v>0.4403989688698552</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.8328835</v>
+      </c>
+      <c r="N21">
+        <v>27.665767</v>
+      </c>
+      <c r="O21">
+        <v>0.7563118715692566</v>
+      </c>
+      <c r="P21">
+        <v>0.6741684479101187</v>
+      </c>
+      <c r="Q21">
+        <v>4.563392185790749</v>
+      </c>
+      <c r="R21">
+        <v>18.253568743163</v>
+      </c>
+      <c r="S21">
+        <v>0.3570777335108661</v>
+      </c>
+      <c r="T21">
+        <v>0.2969030893042069</v>
       </c>
     </row>
   </sheetData>
